--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>74.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>003834</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>华夏能源革新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>103.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165516</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚周期轮动混合(LOF)</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>50.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161912</t>
+          <t>009199</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+          <t>万家价值优势一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>47.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161913</t>
+          <t>519196</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+          <t>万家新兴蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011470</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴新产业精选混合C</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6929</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512100</t>
+          <t>165516</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方中证1000ETF</t>
+          <t>信诚周期轮动混合(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.85</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>94.28</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>6.79</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>011470</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>东吴新产业精选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>162413</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝中证1000指数</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001536</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方君选灵活配置混合</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>49.76</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006486</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发中证1000指数A</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006487</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发中证1000指数C</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003834</t>
+          <t>005049</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏能源革新股票</t>
+          <t>长安鑫旺价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>001536</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>南方君选灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>49.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002564</t>
+          <t>005050</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>新沃通盈灵活配置混合</t>
+          <t>长安鑫旺价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004696</t>
+          <t>512100</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东兴量化优享灵活配置混合</t>
+          <t>南方中证1000ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005049</t>
+          <t>161913</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合A</t>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>82.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005050</t>
+          <t>002564</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合C</t>
+          <t>新沃通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82.30</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>004696</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>东兴量化优享灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005342</t>
+          <t>006486</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合C</t>
+          <t>广发中证1000指数A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519196</t>
+          <t>006487</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
+          <t>广发中证1000指数C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009199</t>
+          <t>162413</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>万家价值优势一年持有期混合</t>
+          <t>华宝中证1000指数</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1592,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>003834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>华夏能源革新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>162.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>64.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001261</t>
+          <t>005927</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融新机遇灵活配置混合</t>
+          <t>创金合信新能源汽车主题股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>005928</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>创金合信新能源汽车主题股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005927</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票A</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005928</t>
+          <t>001261</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信新能源汽车主题股票C</t>
+          <t>中融新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1602,26 +2002,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003834</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2010,7 +2011,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -2026,6 +2026,1238 @@
       </c>
       <c r="H12" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9911</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6694</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6491</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000844</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方绝对收益策略定期开放混合发起</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3263,4 +3264,2490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9483</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0889</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5911</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4627</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4475</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5750,4 +5751,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5759,7 +5760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5770,17 +5771,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5790,14 +5811,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.78</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5806,14 +5849,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.3</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5822,14 +5887,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.51</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5838,13 +5925,1365 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>20.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7182,7 +7183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7193,17 +7194,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7213,14 +7234,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.17</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7229,14 +7272,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.78</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7245,14 +7310,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.3</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7261,14 +7348,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.51</v>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7277,13 +7386,1687 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9634</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>20.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8949,7 +8950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8960,17 +8961,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8980,14 +9001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.24</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8996,14 +9039,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.17</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>205.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -9012,14 +9077,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.78</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -9028,14 +9115,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.3</v>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -9044,14 +9153,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.51</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -9060,13 +9191,2919 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9566</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8662</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>20.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>33.36</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>31.24</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>23.17</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>44.78</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>20.3</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>14.51</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>20.55</v>
       </c>
     </row>
@@ -600,6 +617,2378 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0092</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富中小企业100指数增强</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3619,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5385,7 +7774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6807,7 +9196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9293,7 +11682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10525,7 +12914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10992,7 +13381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002497-雅化集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>16.68</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>33.36</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>31.24</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>23.17</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>44.78</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>14.51</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>20.55</v>
       </c>
     </row>
@@ -616,7 +633,3423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6929</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159623</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成渝经济圈ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014588</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014587</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013527</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +6421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6008,7 +9441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7774,7 +11207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9196,7 +12629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11682,7 +15115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12914,7 +16347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13379,1124 +16812,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>540008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信低碳先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.4938</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003834</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏能源革新股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>103.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.0962</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001643</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.7770</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009199</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家价值优势一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>47.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0376</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519196</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9423</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001644</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7598</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6929</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6929</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6632</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>165516</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚周期轮动混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3305</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2336</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011470</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴新产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1726</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1726</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1480</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005341</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005342</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005049</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长安鑫旺价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001536</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方君选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>49.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005050</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长安鑫旺价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>82.30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002564</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>新沃通盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>